--- a/Manuscript/TableS7_types_of_mediators_ADDIS.xlsx
+++ b/Manuscript/TableS7_types_of_mediators_ADDIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruin\Documents\GitHub\MRPC_support\Manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E935B6-22DD-45C3-9633-DF352E84A77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C5DED1-B07A-46E6-8549-AC2D54E76B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34184A50-C866-4F89-9F23-724D731E8678}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="16104" windowHeight="10560" xr2:uid="{34184A50-C866-4F89-9F23-724D731E8678}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Mediation Type</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>TS7. - ADDIS counts and breakdowns of unique cis and trans mediators and gene types</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E84854-5B02-430C-82C6-DB12BC24D44A}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,11 +492,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>730</v>
-      </c>
-      <c r="C3" s="2">
-        <f>B3/SUM(B3:B5)</f>
-        <v>0.19945355191256831</v>
+        <v>686</v>
+      </c>
+      <c r="C3">
+        <v>0.19140625</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -501,11 +503,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2848</v>
-      </c>
-      <c r="C4" s="2">
-        <f>B4/SUM(B3:B5)</f>
-        <v>0.77814207650273226</v>
+        <v>2816</v>
+      </c>
+      <c r="C4">
+        <v>0.78571428571428603</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -515,15 +516,20 @@
       <c r="B5">
         <v>82</v>
       </c>
-      <c r="C5" s="2">
-        <f>B5/SUM(B3:B5)</f>
-        <v>2.2404371584699455E-2</v>
+      <c r="C5">
+        <v>2.2879464285714302E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>3584</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -553,11 +559,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>145</v>
-      </c>
-      <c r="C10" s="2">
-        <f>B10/SUM(B10:B13)</f>
-        <v>0.19863013698630136</v>
+        <v>127</v>
+      </c>
+      <c r="C10">
+        <v>0.185131195335277</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -565,11 +570,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>368</v>
-      </c>
-      <c r="C11" s="2">
-        <f>B11/SUM(B10:B13)</f>
-        <v>0.50410958904109593</v>
+        <v>349</v>
+      </c>
+      <c r="C11">
+        <v>0.50874635568513105</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -577,11 +581,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>193</v>
-      </c>
-      <c r="C12" s="2">
-        <f>B12/SUM(B10:B13)</f>
-        <v>0.26438356164383564</v>
+        <v>187</v>
+      </c>
+      <c r="C12">
+        <v>0.27259475218658902</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -589,143 +592,173 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2">
-        <f>B13/SUM(B10:B13)</f>
-        <v>3.287671232876712E-2</v>
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>3.3527696793002902E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B10:B13)</f>
+        <v>686</v>
+      </c>
+      <c r="C14">
+        <f>SUM(C10:C13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>879</v>
-      </c>
-      <c r="C16" s="2">
-        <f>B16/SUM(B16:B19)</f>
-        <v>0.3086376404494382</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>687</v>
-      </c>
-      <c r="C17" s="2">
-        <f>B17/SUM(B16:B19)</f>
-        <v>0.24122191011235955</v>
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>576</v>
-      </c>
-      <c r="C18" s="2">
-        <f>B18/SUM(B16:B19)</f>
-        <v>0.20224719101123595</v>
+        <v>862</v>
+      </c>
+      <c r="C18">
+        <v>0.30610795454545497</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>706</v>
-      </c>
-      <c r="C19" s="2">
-        <f>B19/SUM(B16:B19)</f>
-        <v>0.2478932584269663</v>
+        <v>677</v>
+      </c>
+      <c r="C19">
+        <v>0.24041193181818199</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>572</v>
+      </c>
+      <c r="C20">
+        <v>0.203125</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>705</v>
+      </c>
+      <c r="C21">
+        <v>0.25035511363636398</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>18954</v>
-      </c>
-      <c r="C22" s="2">
-        <f>B22/SUM(B22:B25)</f>
-        <v>0.24836858243572607</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23">
-        <v>24935</v>
-      </c>
-      <c r="C23" s="2">
-        <f>B23/SUM(B22:B25)</f>
-        <v>0.32674214429855597</v>
+        <f>SUM(B18:B21)</f>
+        <v>2816</v>
+      </c>
+      <c r="C22">
+        <f>SUM(C18:C21)</f>
+        <v>1.0000000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <v>18843</v>
-      </c>
-      <c r="C24" s="2">
-        <f>B24/SUM(B22:B25)</f>
-        <v>0.24691406557119269</v>
-      </c>
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>18954</v>
+      </c>
+      <c r="C26">
+        <v>0.24836858243572599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>24935</v>
+      </c>
+      <c r="C27">
+        <v>0.32674214429855603</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>18843</v>
+      </c>
+      <c r="C28">
+        <v>0.246914065571193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B25">
+      <c r="B29">
         <v>13582</v>
       </c>
-      <c r="C25" s="2">
-        <f>B25/SUM(B22:B25)</f>
-        <v>0.17797520769452524</v>
+      <c r="C29">
+        <v>0.17797520769452499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <f>SUM(B26:B29)</f>
+        <v>76314</v>
+      </c>
+      <c r="C30">
+        <f>SUM(C26:C29)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
